--- a/data/technology_patents/files/uspto_total_c.xlsx
+++ b/data/technology_patents/files/uspto_total_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE443806-28AB-8743-9E6B-573643A0AE4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA5A97-8705-1648-97B9-0FC2B5D04CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{8985F426-6078-E942-9C77-C17143F52542}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DDC8B-BD03-7342-AE1A-76C43BD8C768}">
   <dimension ref="A1:C1888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A812" workbookViewId="0">
-      <selection activeCell="F1023" sqref="F1023"/>
+    <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
+      <selection activeCell="A892" sqref="A892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/technology_patents/files/uspto_total_c.xlsx
+++ b/data/technology_patents/files/uspto_total_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA5A97-8705-1648-97B9-0FC2B5D04CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAD60E-A863-AE4A-97E4-D4223B5E65D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{8985F426-6078-E942-9C77-C17143F52542}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:C1888"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
-      <selection activeCell="A892" sqref="A892"/>
+      <selection activeCell="G893" sqref="G893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/technology_patents/files/uspto_total_c.xlsx
+++ b/data/technology_patents/files/uspto_total_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819DF30-DE29-4F4B-B431-A8A384477EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C212B0C-73F6-424D-82AD-578DA6BD4476}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{8985F426-6078-E942-9C77-C17143F52542}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DDC8B-BD03-7342-AE1A-76C43BD8C768}">
   <dimension ref="A1:C1888"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,9 +727,6 @@
       <c r="B2">
         <v>1999</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -771,9 +768,6 @@
       <c r="B6">
         <v>2003</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -925,9 +919,6 @@
       <c r="B20">
         <v>1999</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -936,9 +927,6 @@
       <c r="B21">
         <v>2000</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -980,9 +968,6 @@
       <c r="B25">
         <v>2004</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1002,9 +987,6 @@
       <c r="B27">
         <v>2006</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1123,9 +1105,6 @@
       <c r="B38">
         <v>2017</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1343,9 +1322,6 @@
       <c r="B58">
         <v>1999</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -2575,9 +2551,6 @@
       <c r="B170">
         <v>1999</v>
       </c>
-      <c r="C170" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -2751,9 +2724,6 @@
       <c r="B186">
         <v>2015</v>
       </c>
-      <c r="C186" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -3411,9 +3381,6 @@
       <c r="B246">
         <v>1999</v>
       </c>
-      <c r="C246" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -4874,9 +4841,6 @@
       <c r="B379">
         <v>1999</v>
       </c>
-      <c r="C379" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -4885,9 +4849,6 @@
       <c r="B380">
         <v>2000</v>
       </c>
-      <c r="C380" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -4896,9 +4857,6 @@
       <c r="B381">
         <v>2001</v>
       </c>
-      <c r="C381" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -4929,9 +4887,6 @@
       <c r="B384">
         <v>2004</v>
       </c>
-      <c r="C384" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
@@ -4940,9 +4895,6 @@
       <c r="B385">
         <v>2005</v>
       </c>
-      <c r="C385" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -4951,9 +4903,6 @@
       <c r="B386">
         <v>2006</v>
       </c>
-      <c r="C386" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
@@ -4962,9 +4911,6 @@
       <c r="B387">
         <v>2007</v>
       </c>
-      <c r="C387" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
@@ -4995,9 +4941,6 @@
       <c r="B390">
         <v>2010</v>
       </c>
-      <c r="C390" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
@@ -5039,9 +4982,6 @@
       <c r="B394">
         <v>2014</v>
       </c>
-      <c r="C394" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -5061,9 +5001,6 @@
       <c r="B396">
         <v>2016</v>
       </c>
-      <c r="C396" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -5072,9 +5009,6 @@
       <c r="B397">
         <v>2017</v>
       </c>
-      <c r="C397" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
@@ -5710,9 +5644,6 @@
       <c r="B455">
         <v>1999</v>
       </c>
-      <c r="C455" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -5743,9 +5674,6 @@
       <c r="B458">
         <v>2002</v>
       </c>
-      <c r="C458" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -5754,9 +5682,6 @@
       <c r="B459">
         <v>2003</v>
       </c>
-      <c r="C459" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -5776,9 +5701,6 @@
       <c r="B461">
         <v>2005</v>
       </c>
-      <c r="C461" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -5831,9 +5753,6 @@
       <c r="B466">
         <v>2010</v>
       </c>
-      <c r="C466" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -5853,9 +5772,6 @@
       <c r="B468">
         <v>2012</v>
       </c>
-      <c r="C468" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
@@ -8603,9 +8519,6 @@
       <c r="B718">
         <v>1999</v>
       </c>
-      <c r="C718" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
@@ -8614,9 +8527,6 @@
       <c r="B719">
         <v>2000</v>
       </c>
-      <c r="C719" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
@@ -9648,9 +9558,6 @@
       <c r="B813">
         <v>1999</v>
       </c>
-      <c r="C813" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
@@ -10484,9 +10391,6 @@
       <c r="B889">
         <v>1999</v>
       </c>
-      <c r="C889" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
@@ -10803,9 +10707,6 @@
       <c r="B918">
         <v>2009</v>
       </c>
-      <c r="C918" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
@@ -12618,9 +12519,6 @@
       <c r="B1083">
         <v>2004</v>
       </c>
-      <c r="C1083" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
@@ -13190,9 +13088,6 @@
       <c r="B1135">
         <v>1999</v>
       </c>
-      <c r="C1135" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
@@ -13201,9 +13096,6 @@
       <c r="B1136">
         <v>2000</v>
       </c>
-      <c r="C1136" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
@@ -13212,9 +13104,6 @@
       <c r="B1137">
         <v>2001</v>
       </c>
-      <c r="C1137" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
@@ -13223,9 +13112,6 @@
       <c r="B1138">
         <v>2002</v>
       </c>
-      <c r="C1138" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
@@ -13597,9 +13483,6 @@
       <c r="B1172">
         <v>1999</v>
       </c>
-      <c r="C1172" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
@@ -13608,9 +13491,6 @@
       <c r="B1173">
         <v>2000</v>
       </c>
-      <c r="C1173" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
@@ -13619,9 +13499,6 @@
       <c r="B1174">
         <v>2001</v>
       </c>
-      <c r="C1174" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
@@ -13630,9 +13507,6 @@
       <c r="B1175">
         <v>2002</v>
       </c>
-      <c r="C1175" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
@@ -13641,9 +13515,6 @@
       <c r="B1176">
         <v>2003</v>
       </c>
-      <c r="C1176" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
@@ -13685,9 +13556,6 @@
       <c r="B1180">
         <v>2007</v>
       </c>
-      <c r="C1180" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
@@ -13696,9 +13564,6 @@
       <c r="B1181">
         <v>2008</v>
       </c>
-      <c r="C1181" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
@@ -13718,9 +13583,6 @@
       <c r="B1183">
         <v>2010</v>
       </c>
-      <c r="C1183" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
@@ -14213,9 +14075,6 @@
       <c r="B1228">
         <v>1999</v>
       </c>
-      <c r="C1228" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
@@ -14224,9 +14083,6 @@
       <c r="B1229">
         <v>2000</v>
       </c>
-      <c r="C1229" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
@@ -14235,9 +14091,6 @@
       <c r="B1230">
         <v>2001</v>
       </c>
-      <c r="C1230" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
@@ -14829,9 +14682,6 @@
       <c r="B1284">
         <v>1999</v>
       </c>
-      <c r="C1284" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
@@ -15027,9 +14877,6 @@
       <c r="B1302">
         <v>1999</v>
       </c>
-      <c r="C1302" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
@@ -15445,9 +15292,6 @@
       <c r="B1340">
         <v>1999</v>
       </c>
-      <c r="C1340" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
@@ -15456,9 +15300,6 @@
       <c r="B1341">
         <v>2000</v>
       </c>
-      <c r="C1341" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
@@ -15467,9 +15308,6 @@
       <c r="B1342">
         <v>2001</v>
       </c>
-      <c r="C1342" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
@@ -15478,9 +15316,6 @@
       <c r="B1343">
         <v>2002</v>
       </c>
-      <c r="C1343" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
@@ -15489,9 +15324,6 @@
       <c r="B1344">
         <v>2003</v>
       </c>
-      <c r="C1344" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
@@ -15511,9 +15343,6 @@
       <c r="B1346">
         <v>2005</v>
       </c>
-      <c r="C1346" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
@@ -15522,9 +15351,6 @@
       <c r="B1347">
         <v>2006</v>
       </c>
-      <c r="C1347" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
@@ -15533,9 +15359,6 @@
       <c r="B1348">
         <v>2007</v>
       </c>
-      <c r="C1348" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
@@ -15544,9 +15367,6 @@
       <c r="B1349">
         <v>2008</v>
       </c>
-      <c r="C1349" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
@@ -15555,9 +15375,6 @@
       <c r="B1350">
         <v>2009</v>
       </c>
-      <c r="C1350" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
@@ -15566,9 +15383,6 @@
       <c r="B1351">
         <v>2010</v>
       </c>
-      <c r="C1351" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
@@ -15577,9 +15391,6 @@
       <c r="B1352">
         <v>2011</v>
       </c>
-      <c r="C1352" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
@@ -16699,9 +16510,6 @@
       <c r="B1454">
         <v>1999</v>
       </c>
-      <c r="C1454" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
@@ -16710,9 +16518,6 @@
       <c r="B1455">
         <v>2000</v>
       </c>
-      <c r="C1455" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
@@ -16842,9 +16647,6 @@
       <c r="B1467">
         <v>2012</v>
       </c>
-      <c r="C1467" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
@@ -19196,9 +18998,6 @@
       <c r="B1681">
         <v>1999</v>
       </c>
-      <c r="C1681" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1682" t="s">
@@ -19218,9 +19017,6 @@
       <c r="B1683">
         <v>2001</v>
       </c>
-      <c r="C1683" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1684" t="s">
@@ -20857,9 +20653,6 @@
       <c r="B1832">
         <v>1999</v>
       </c>
-      <c r="C1832" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
@@ -20868,9 +20661,6 @@
       <c r="B1833">
         <v>2000</v>
       </c>
-      <c r="C1833" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
@@ -20912,9 +20702,6 @@
       <c r="B1837">
         <v>2004</v>
       </c>
-      <c r="C1837" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
@@ -20923,9 +20710,6 @@
       <c r="B1838">
         <v>2005</v>
       </c>
-      <c r="C1838" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1839" t="s">
@@ -20956,9 +20740,6 @@
       <c r="B1841">
         <v>2008</v>
       </c>
-      <c r="C1841" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
@@ -21286,9 +21067,6 @@
       <c r="B1871">
         <v>2000</v>
       </c>
-      <c r="C1871" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1872" t="s">
@@ -21352,9 +21130,6 @@
       <c r="B1877">
         <v>2006</v>
       </c>
-      <c r="C1877" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
@@ -21374,9 +21149,6 @@
       <c r="B1879">
         <v>2008</v>
       </c>
-      <c r="C1879" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
@@ -21385,9 +21157,6 @@
       <c r="B1880">
         <v>2009</v>
       </c>
-      <c r="C1880" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
@@ -21407,9 +21176,6 @@
       <c r="B1882">
         <v>2011</v>
       </c>
-      <c r="C1882" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
@@ -21418,9 +21184,6 @@
       <c r="B1883">
         <v>2012</v>
       </c>
-      <c r="C1883" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
@@ -21440,9 +21203,6 @@
       <c r="B1885">
         <v>2014</v>
       </c>
-      <c r="C1885" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
@@ -21472,9 +21232,6 @@
       </c>
       <c r="B1888">
         <v>2017</v>
-      </c>
-      <c r="C1888" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
